--- a/data/trans_dic/P32E$casa_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32E$casa_2023-Clase-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en su casa (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en su casa (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -986,7 +986,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en su casa (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en su casa (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$casa_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32E$casa_2023-Clase-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.6512806464813766</v>
+        <v>0.6512806464813765</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.4577751870952153</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6047031600265326</v>
+        <v>0.6047031600265323</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4322756014079074</v>
+        <v>0.3839341416891279</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0959022227576441</v>
+        <v>0.1019561994364735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4091097877977345</v>
+        <v>0.4046584018934609</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8503768945368481</v>
+        <v>0.8380340069476651</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8926374748773762</v>
+        <v>0.8654146276076081</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7880028457860168</v>
+        <v>0.7889946760647178</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.5175853216262811</v>
+        <v>0.517585321626281</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.5298272339652635</v>
+        <v>0.5298272339652634</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5232900815270305</v>
+        <v>0.5232900815270306</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2863090804098926</v>
+        <v>0.2778424198456412</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2615874717497993</v>
+        <v>0.2490530142828213</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3294780281702446</v>
+        <v>0.3233308766779998</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7822771741127647</v>
+        <v>0.7664757347896516</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7968676017178503</v>
+        <v>0.790805343217924</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7193357665659662</v>
+        <v>0.6991930706033578</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.434744751539885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3643259007851786</v>
+        <v>0.3643259007851787</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2050982447479494</v>
+        <v>0.1950627345167334</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2095154991281075</v>
+        <v>0.2092548017203958</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5680461805152108</v>
+        <v>0.5721762990990472</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8477572656358082</v>
+        <v>0.8652919518694443</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5543852795684112</v>
+        <v>0.5550199339815977</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.5448185132561668</v>
+        <v>0.5448185132561667</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2609940748463672</v>
+        <v>0.2609940748463671</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.4704706332958372</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4002176986598766</v>
+        <v>0.3826019101468987</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09012519121662138</v>
+        <v>0.08412861945848427</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3375059962922293</v>
+        <v>0.3448725648665831</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.690813367482858</v>
+        <v>0.6793247988057881</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5162054920314679</v>
+        <v>0.4920629961388404</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6063215451175143</v>
+        <v>0.6073900612228142</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.490336447545247</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.673150131345996</v>
+        <v>0.6731501313459961</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4540485747957927</v>
+        <v>0.4956096595484553</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2280617907678697</v>
+        <v>0.2025043309643824</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4799513184339151</v>
+        <v>0.4855520816094209</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8623386283444295</v>
+        <v>0.8638285309051219</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.784326319577286</v>
+        <v>0.7643853212161948</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8152794370321895</v>
+        <v>0.8240472507175574</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.08340611337539033</v>
+        <v>0.08340611337539035</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.2283593700131726</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02557178420679202</v>
+        <v>0.02621017305422179</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5051261080927363</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6122623907069592</v>
+        <v>0.6301197946673881</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5199227730980341</v>
+        <v>0.4801938215423504</v>
       </c>
     </row>
     <row r="22">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.5440240001957457</v>
+        <v>0.5440240001957456</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3769042794353283</v>
+        <v>0.3769042794353284</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.4978305790277672</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4450400466510663</v>
+        <v>0.4578060942074592</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2567758735213646</v>
+        <v>0.2476176616043559</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.422213946399888</v>
+        <v>0.4269964501434542</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6310777417264813</v>
+        <v>0.6362987241140606</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5085483843221774</v>
+        <v>0.5110959910299641</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5748871921215278</v>
+        <v>0.5766367783811884</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8834</v>
+        <v>7846</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11010</v>
+        <v>10890</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17377</v>
+        <v>17125</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5783</v>
+        <v>5606</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21207</v>
+        <v>21233</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4389</v>
+        <v>4259</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3499</v>
+        <v>3332</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9458</v>
+        <v>9282</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11992</v>
+        <v>11749</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10660</v>
+        <v>10579</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20649</v>
+        <v>20071</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6556</v>
+        <v>6236</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7441</v>
+        <v>7431</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18159</v>
+        <v>18291</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3007</v>
+        <v>3069</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19688</v>
+        <v>19711</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16734</v>
+        <v>15998</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1337</v>
+        <v>1248</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19121</v>
+        <v>19538</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>28885</v>
+        <v>28405</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7660</v>
+        <v>7302</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>34350</v>
+        <v>34410</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>19102</v>
+        <v>20851</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1927</v>
+        <v>1711</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>24247</v>
+        <v>24530</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>36279</v>
+        <v>36342</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6626</v>
+        <v>6458</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>41187</v>
+        <v>41630</v>
       </c>
     </row>
     <row r="24">
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3073</v>
+        <v>6084</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8296</v>
+        <v>8538</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10208</v>
+        <v>9428</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>70182</v>
+        <v>72196</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>15468</v>
+        <v>14916</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>92017</v>
+        <v>93059</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>99520</v>
+        <v>100344</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>30635</v>
+        <v>30788</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>125290</v>
+        <v>125672</v>
       </c>
     </row>
     <row r="32">
